--- a/biology/Botanique/Egremont_Russet/Egremont_Russet.xlsx
+++ b/biology/Botanique/Egremont_Russet/Egremont_Russet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Egremont Russet est un cultivar de pommier domestique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété est originaire de Petworth Sussex, en Angleterre, supposée créée par le comte d'Egremont. Elle a été introduite vers 1872.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage : pomme à couteau.
 Fleurs : blanches.
@@ -577,7 +593,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parents inconnus
 </t>
@@ -608,10 +626,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété partiellement autofertile.
-Groupe de floraison: A[1], B
+Groupe de floraison: A, B
 Sources de pollen: Beauty of Bath
 </t>
         </is>
@@ -642,6 +662,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -667,7 +689,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cueillette: fin septembre</t>
         </is>
